--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_10_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_10_21.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>805943.4530529029</v>
+        <v>886146.1762049372</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5739665.974240759</v>
+        <v>5739665.974240756</v>
       </c>
     </row>
     <row r="9">
@@ -659,10 +661,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>23.41994504831871</v>
       </c>
       <c r="D2" t="n">
-        <v>305.012616457272</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -677,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -756,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923704996</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>69.63957399764172</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,25 +867,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>1.781160222249673</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>105.1352341493939</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>213.9187696850668</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,10 +949,10 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -962,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1102,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>79.41653965146595</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>198.396872674038</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1130,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>245.3924319518751</v>
+        <v>75.70103628687218</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,22 +1341,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>105.5027752869406</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>144.8586974472227</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1367,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1388,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,22 +1423,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>38.18739105194257</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>270.1699317097932</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1469,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1525,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1540,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>225.8615674983293</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>209.5154603928285</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>103.6450161510099</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1667,13 +1669,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>187.9685985371967</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>74.75769145492336</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1783,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>74.7576914549238</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1856,10 +1858,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>271.7754114124715</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1901,13 +1903,13 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>243.2391485592449</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2008,16 +2010,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>230.0882684280483</v>
       </c>
       <c r="W19" t="n">
-        <v>210.6180377869401</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2087,19 +2089,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>85.17289288835173</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2138,13 +2140,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>7.238882005936134</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2178,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2287,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>186.2120483577856</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>218.1043346164863</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2324,19 +2326,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>16.34825474388594</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2384,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>211.2537974520542</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2417,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247721</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S24" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T24" t="n">
         <v>190.7165703189231</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>35.04027315184531</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,19 +2484,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>77.31354443380503</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,22 +2529,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2564,16 +2566,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>89.48046147214271</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,22 +2608,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>58.92805047992029</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2725,7 +2727,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>71.67037196991727</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2770,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2795,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>37.28745735111455</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2810,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>203.9179701396201</v>
@@ -2849,16 +2851,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>124.1243958230294</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2950,22 +2952,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>94.25212658606793</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3029,22 +3031,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>158.1556649146112</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -3080,13 +3082,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>184.148115241653</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3190,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>35.19569619650092</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3272,7 +3274,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>75.4571321610379</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3281,7 +3283,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -3320,13 +3322,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>205.6368254889311</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3436,13 +3438,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>13.02719212039625</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3481,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>234.8758626236981</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3509,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>85.17289288835127</v>
+        <v>85.17289288835215</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3600,7 +3602,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>42.86209348694737</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3709,25 +3711,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>114.2656173771021</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3749,16 +3751,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>136.4159137733192</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>101.0019353556651</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3839,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>19.49905836424242</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>97.27989568773788</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
@@ -3955,13 +3957,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3980,22 +3982,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>57.92556443677338</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>286.8517409876633</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4144,16 +4146,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>62.40697986446754</v>
+        <v>164.2540732785633</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
@@ -4198,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>728.3028554854573</v>
+        <v>141.2769458819316</v>
       </c>
       <c r="C2" t="n">
-        <v>359.3403385450455</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="D2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="E2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="F2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816073</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872907</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O2" t="n">
         <v>2055.22848474084</v>
@@ -4355,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2231.276441056585</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1878.507785786471</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1505.042027525391</v>
+        <v>918.0161179218651</v>
       </c>
       <c r="Y2" t="n">
-        <v>1114.902695549579</v>
+        <v>527.8767859460534</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542602</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756897</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057882</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735141</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>1117.223096727985</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M3" t="n">
-        <v>1480.485115687206</v>
+        <v>956.2844025217532</v>
       </c>
       <c r="N3" t="n">
-        <v>1867.770244284151</v>
+        <v>1541.323645957601</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>903.4321187182926</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="C4" t="n">
-        <v>734.4959357903857</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="D4" t="n">
-        <v>584.37929637805</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E4" t="n">
-        <v>436.4662027956568</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F4" t="n">
-        <v>289.5762552977465</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G4" t="n">
-        <v>121.589790606025</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
         <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4513,25 +4515,25 @@
         <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1533.86271359008</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1533.86271359008</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1533.86271359008</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V4" t="n">
-        <v>1533.86271359008</v>
+        <v>570.4526592426272</v>
       </c>
       <c r="W4" t="n">
-        <v>1533.86271359008</v>
+        <v>281.0354892056666</v>
       </c>
       <c r="X4" t="n">
-        <v>1305.873162692062</v>
+        <v>53.04593830764924</v>
       </c>
       <c r="Y4" t="n">
-        <v>1085.080583548532</v>
+        <v>51.2467865680031</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1380.342820051861</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="C5" t="n">
-        <v>1011.380303111449</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="D5" t="n">
-        <v>653.1146045046987</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="E5" t="n">
-        <v>267.3263519064545</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="F5" t="n">
-        <v>51.24678656800311</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800311</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4595,22 +4597,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926626</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V5" t="n">
-        <v>2106.577233583055</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W5" t="n">
-        <v>1753.808578312941</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X5" t="n">
-        <v>1380.342820051861</v>
+        <v>918.0161179218651</v>
       </c>
       <c r="Y5" t="n">
-        <v>1380.342820051861</v>
+        <v>527.8767859460534</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380227</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694943</v>
+        <v>599.4122767260733</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>1233.591260505112</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,49 +4701,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>220.18296949591</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="C7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="D7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4750,25 +4752,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1556.227393153825</v>
       </c>
       <c r="T7" t="n">
-        <v>1413.467639269232</v>
+        <v>1333.24891234856</v>
       </c>
       <c r="U7" t="n">
-        <v>1213.066757780305</v>
+        <v>1044.130574852398</v>
       </c>
       <c r="V7" t="n">
-        <v>958.3822695744182</v>
+        <v>789.4460866465112</v>
       </c>
       <c r="W7" t="n">
-        <v>668.9650995374575</v>
+        <v>500.0289166095505</v>
       </c>
       <c r="X7" t="n">
-        <v>440.9755486394401</v>
+        <v>272.0393657115332</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.18296949591</v>
+        <v>51.2467865680031</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1164.26325471341</v>
+        <v>1567.784838233996</v>
       </c>
       <c r="C8" t="n">
-        <v>795.3007377729979</v>
+        <v>1567.784838233996</v>
       </c>
       <c r="D8" t="n">
-        <v>437.0350391662474</v>
+        <v>1567.784838233996</v>
       </c>
       <c r="E8" t="n">
-        <v>51.24678656800311</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="F8" t="n">
-        <v>51.24678656800311</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872913</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4829,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400155</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W8" t="n">
-        <v>2314.468185014423</v>
+        <v>1567.784838233996</v>
       </c>
       <c r="X8" t="n">
-        <v>1941.002426753343</v>
+        <v>1567.784838233996</v>
       </c>
       <c r="Y8" t="n">
-        <v>1550.863094777531</v>
+        <v>1567.784838233996</v>
       </c>
     </row>
     <row r="9">
@@ -4857,10 +4859,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
         <v>607.9167021542605</v>
@@ -4869,28 +4871,28 @@
         <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>684.9695361605191</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L9" t="n">
-        <v>1092.885047004312</v>
+        <v>717.8525085495377</v>
       </c>
       <c r="M9" t="n">
-        <v>1456.147065963532</v>
+        <v>1209.253210781439</v>
       </c>
       <c r="N9" t="n">
         <v>1843.432194560477</v>
@@ -4920,7 +4922,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
         <v>1307.279776881661</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>51.24678656800311</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="C10" t="n">
-        <v>51.24678656800311</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D10" t="n">
-        <v>51.24678656800311</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E10" t="n">
-        <v>51.24678656800311</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800311</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312202</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1333.24891234856</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1044.130574852398</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>789.4460866465112</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W10" t="n">
-        <v>500.0289166095505</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="X10" t="n">
-        <v>272.0393657115332</v>
+        <v>1490.124203461141</v>
       </c>
       <c r="Y10" t="n">
-        <v>51.24678656800311</v>
+        <v>1269.331624317611</v>
       </c>
     </row>
     <row r="11">
@@ -5015,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1944.904841306683</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C11" t="n">
-        <v>1575.942324366272</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D11" t="n">
-        <v>1575.942324366272</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E11" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F11" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G11" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912089</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
         <v>2120.555556060171</v>
@@ -5060,7 +5062,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
@@ -5069,22 +5071,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>3287.032699334482</v>
       </c>
       <c r="U11" t="n">
-        <v>3325.605821609171</v>
+        <v>3033.502222608318</v>
       </c>
       <c r="V11" t="n">
-        <v>2994.5429342656</v>
+        <v>2702.439335264748</v>
       </c>
       <c r="W11" t="n">
-        <v>2721.644013346617</v>
+        <v>2349.670679994633</v>
       </c>
       <c r="X11" t="n">
-        <v>2721.644013346617</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="Y11" t="n">
-        <v>2331.504681370805</v>
+        <v>1976.204921733553</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5117,31 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
         <v>2564.909189125856</v>
@@ -5173,43 +5175,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>777.020896318616</v>
+        <v>678.4618728343356</v>
       </c>
       <c r="C13" t="n">
-        <v>608.0847133907091</v>
+        <v>678.4618728343356</v>
       </c>
       <c r="D13" t="n">
-        <v>457.9680739783734</v>
+        <v>528.3452334219999</v>
       </c>
       <c r="E13" t="n">
-        <v>310.0549803959803</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="F13" t="n">
-        <v>310.0549803959803</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O13" t="n">
         <v>1617.076751502319</v>
@@ -5224,25 +5226,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S13" t="n">
-        <v>1645.778206672847</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T13" t="n">
-        <v>1645.778206672847</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U13" t="n">
-        <v>1645.778206672847</v>
+        <v>1195.868593769314</v>
       </c>
       <c r="V13" t="n">
-        <v>1391.09371846696</v>
+        <v>1195.868593769314</v>
       </c>
       <c r="W13" t="n">
-        <v>1391.09371846696</v>
+        <v>906.451423732353</v>
       </c>
       <c r="X13" t="n">
-        <v>1179.461940292386</v>
+        <v>678.4618728343356</v>
       </c>
       <c r="Y13" t="n">
-        <v>958.6693611488557</v>
+        <v>678.4618728343356</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>921.7704558796256</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C14" t="n">
-        <v>817.078520373555</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D14" t="n">
-        <v>817.078520373555</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E14" t="n">
-        <v>817.078520373555</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F14" t="n">
-        <v>406.0926155839475</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G14" t="n">
         <v>406.0926155839475</v>
@@ -5276,7 +5278,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
         <v>589.2106210810557</v>
@@ -5303,25 +5305,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U14" t="n">
-        <v>2755.806928794324</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V14" t="n">
-        <v>2424.744041450753</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W14" t="n">
-        <v>2071.975386180639</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="X14" t="n">
-        <v>1698.509627919559</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="Y14" t="n">
-        <v>1308.370295943747</v>
+        <v>2345.167438673965</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X15" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="16">
@@ -5410,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>66.51211643218342</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="C16" t="n">
-        <v>66.51211643218342</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="D16" t="n">
-        <v>66.51211643218342</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="E16" t="n">
-        <v>66.51211643218342</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="F16" t="n">
-        <v>66.51211643218342</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218342</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218342</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L16" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N16" t="n">
         <v>1317.747152581905</v>
@@ -5455,10 +5457,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S16" t="n">
         <v>1645.778206672847</v>
@@ -5470,16 +5472,16 @@
         <v>1134.908724368016</v>
       </c>
       <c r="V16" t="n">
-        <v>880.2242361621292</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W16" t="n">
-        <v>590.8070661251686</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X16" t="n">
-        <v>362.8175152271513</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y16" t="n">
-        <v>142.0249360836212</v>
+        <v>142.0249360836216</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1865.035106955552</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="C17" t="n">
-        <v>1496.072590015141</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D17" t="n">
-        <v>1137.80689140839</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E17" t="n">
-        <v>752.0186388101461</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F17" t="n">
-        <v>341.0327340205385</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G17" t="n">
-        <v>341.0327340205385</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H17" t="n">
         <v>66.51211643218342</v>
@@ -5513,16 +5515,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
         <v>2120.555556060171</v>
@@ -5549,16 +5551,16 @@
         <v>3325.605821609171</v>
       </c>
       <c r="V17" t="n">
-        <v>2994.5429342656</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W17" t="n">
-        <v>2641.774278995486</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="X17" t="n">
-        <v>2641.774278995486</v>
+        <v>3079.909711953368</v>
       </c>
       <c r="Y17" t="n">
-        <v>2251.634947019674</v>
+        <v>2689.770379977556</v>
       </c>
     </row>
     <row r="18">
@@ -5568,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G18" t="n">
         <v>176.0213023927779</v>
@@ -5589,7 +5591,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J18" t="n">
         <v>160.1893859228007</v>
@@ -5598,7 +5600,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5625,7 +5627,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5634,10 +5636,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>994.2880032601528</v>
+        <v>553.2677753977071</v>
       </c>
       <c r="C19" t="n">
-        <v>825.3518203322459</v>
+        <v>384.3315924698002</v>
       </c>
       <c r="D19" t="n">
-        <v>675.2351809199101</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E19" t="n">
-        <v>527.322087337517</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F19" t="n">
-        <v>380.4321398396066</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G19" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H19" t="n">
         <v>66.51211643218342</v>
@@ -5695,28 +5697,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S19" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T19" t="n">
-        <v>1837.464090846021</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U19" t="n">
-        <v>1837.464090846021</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="V19" t="n">
-        <v>1837.464090846021</v>
+        <v>1473.115540306455</v>
       </c>
       <c r="W19" t="n">
-        <v>1624.71859813194</v>
+        <v>1183.698370269494</v>
       </c>
       <c r="X19" t="n">
-        <v>1396.729047233923</v>
+        <v>955.7088193714769</v>
       </c>
       <c r="Y19" t="n">
-        <v>1175.936468090393</v>
+        <v>734.9162402279468</v>
       </c>
     </row>
     <row r="20">
@@ -5726,52 +5728,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>921.7704558796261</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C20" t="n">
-        <v>552.8079389392144</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D20" t="n">
-        <v>194.5422403324639</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E20" t="n">
-        <v>108.5090151927147</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F20" t="n">
-        <v>108.5090151927147</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G20" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H20" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
@@ -5780,22 +5782,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T20" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U20" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V20" t="n">
-        <v>2424.744041450754</v>
+        <v>2748.494926768127</v>
       </c>
       <c r="W20" t="n">
-        <v>2071.975386180639</v>
+        <v>2395.726271498012</v>
       </c>
       <c r="X20" t="n">
-        <v>1698.50962791956</v>
+        <v>2395.726271498012</v>
       </c>
       <c r="Y20" t="n">
-        <v>1308.370295943748</v>
+        <v>2005.586939522201</v>
       </c>
     </row>
     <row r="21">
@@ -5805,37 +5807,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K21" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5862,7 +5864,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5871,10 +5873,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>532.4548862703364</v>
+        <v>1633.759572880769</v>
       </c>
       <c r="C22" t="n">
-        <v>363.5187033424295</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="D22" t="n">
-        <v>213.4020639300938</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="E22" t="n">
-        <v>213.4020639300938</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="F22" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="G22" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J22" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399798</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348674</v>
       </c>
       <c r="L22" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N22" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102584</v>
       </c>
       <c r="O22" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P22" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456657</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R22" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S22" t="n">
-        <v>1927.294548088493</v>
+        <v>3137.512843469994</v>
       </c>
       <c r="T22" t="n">
-        <v>1927.294548088493</v>
+        <v>2915.74622803952</v>
       </c>
       <c r="U22" t="n">
-        <v>1706.987139384971</v>
+        <v>2626.643361165164</v>
       </c>
       <c r="V22" t="n">
-        <v>1452.302651179084</v>
+        <v>2371.958872959277</v>
       </c>
       <c r="W22" t="n">
-        <v>1162.885481142124</v>
+        <v>2082.541702922316</v>
       </c>
       <c r="X22" t="n">
-        <v>934.8959302441062</v>
+        <v>1854.552152024299</v>
       </c>
       <c r="Y22" t="n">
-        <v>714.1033511005761</v>
+        <v>1633.759572880769</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1221.525483338121</v>
+        <v>1208.812782134349</v>
       </c>
       <c r="C23" t="n">
-        <v>852.5629663977095</v>
+        <v>839.8502651939375</v>
       </c>
       <c r="D23" t="n">
-        <v>494.2972677909589</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="E23" t="n">
-        <v>108.5090151927147</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="F23" t="n">
-        <v>108.5090151927147</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G23" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H23" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912088</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L23" t="n">
         <v>1040.244834329464</v>
@@ -5999,40 +6001,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R23" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3309.092432978983</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T23" t="n">
-        <v>3309.092432978983</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U23" t="n">
-        <v>3055.56195625282</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V23" t="n">
-        <v>2724.499068909249</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W23" t="n">
-        <v>2371.730413639134</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="X23" t="n">
-        <v>1998.264655378055</v>
+        <v>1808.800296392465</v>
       </c>
       <c r="Y23" t="n">
-        <v>1608.125323402243</v>
+        <v>1595.412622198471</v>
       </c>
     </row>
     <row r="24">
@@ -6042,37 +6044,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6099,7 +6101,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V24" t="n">
         <v>1779.608347199865</v>
@@ -6108,10 +6110,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="25">
@@ -6121,43 +6123,43 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1091.613680441807</v>
+        <v>463.6594280995018</v>
       </c>
       <c r="C25" t="n">
-        <v>922.6774975139006</v>
+        <v>294.723245171595</v>
       </c>
       <c r="D25" t="n">
-        <v>772.5608581015648</v>
+        <v>144.6066057592592</v>
       </c>
       <c r="E25" t="n">
-        <v>624.6477645191717</v>
+        <v>144.6066057592592</v>
       </c>
       <c r="F25" t="n">
-        <v>477.7578170212613</v>
+        <v>144.6066057592592</v>
       </c>
       <c r="G25" t="n">
-        <v>310.0549803959803</v>
+        <v>144.6066057592592</v>
       </c>
       <c r="H25" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J25" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K25" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L25" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M25" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N25" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O25" t="n">
         <v>1617.076751502319</v>
@@ -6175,22 +6177,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T25" t="n">
-        <v>1705.527932658019</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U25" t="n">
-        <v>1416.425065783662</v>
+        <v>1638.191681214137</v>
       </c>
       <c r="V25" t="n">
-        <v>1416.425065783662</v>
+        <v>1383.50719300825</v>
       </c>
       <c r="W25" t="n">
-        <v>1127.007895746702</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X25" t="n">
-        <v>1127.007895746702</v>
+        <v>866.1004720732717</v>
       </c>
       <c r="Y25" t="n">
-        <v>1127.007895746702</v>
+        <v>645.3078929297416</v>
       </c>
     </row>
     <row r="26">
@@ -6200,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1311.909787855437</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C26" t="n">
-        <v>942.9472709150252</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D26" t="n">
-        <v>584.6815723082748</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E26" t="n">
-        <v>198.8933197100305</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F26" t="n">
-        <v>108.5090151927147</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G26" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H26" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I26" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K26" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
         <v>2120.555556060171</v>
@@ -6254,22 +6256,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T26" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U26" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V26" t="n">
-        <v>2424.744041450753</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W26" t="n">
-        <v>2071.975386180638</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="X26" t="n">
-        <v>1698.509627919559</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y26" t="n">
-        <v>1698.509627919559</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="27">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2151.073568494535</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C28" t="n">
-        <v>1982.137385566628</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D28" t="n">
-        <v>1832.020746154293</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E28" t="n">
-        <v>1684.1076525719</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F28" t="n">
-        <v>1537.217705073989</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G28" t="n">
-        <v>1464.823389952861</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H28" t="n">
-        <v>1464.823389952861</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I28" t="n">
-        <v>1464.823389952861</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J28" t="n">
-        <v>1509.946022399796</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K28" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L28" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M28" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N28" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O28" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P28" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q28" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R28" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S28" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T28" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U28" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V28" t="n">
-        <v>3070.921333403283</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W28" t="n">
-        <v>2781.504163366323</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X28" t="n">
-        <v>2553.514612468305</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y28" t="n">
-        <v>2332.722033324775</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1311.909787855437</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C29" t="n">
-        <v>942.9472709150257</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D29" t="n">
-        <v>905.2831725805665</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E29" t="n">
-        <v>519.4949199823222</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F29" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G29" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H29" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R29" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T29" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U29" t="n">
-        <v>2755.806928794324</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V29" t="n">
-        <v>2424.744041450753</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="W29" t="n">
-        <v>2071.975386180639</v>
+        <v>2740.71941966821</v>
       </c>
       <c r="X29" t="n">
-        <v>1698.509627919559</v>
+        <v>2367.25366140713</v>
       </c>
       <c r="Y29" t="n">
-        <v>1698.509627919559</v>
+        <v>1977.114329431319</v>
       </c>
     </row>
     <row r="30">
@@ -6537,7 +6539,7 @@
         <v>85.51940803064554</v>
       </c>
       <c r="I30" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J30" t="n">
         <v>160.1893859228007</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1091.613680441807</v>
+        <v>409.1586012949293</v>
       </c>
       <c r="C31" t="n">
-        <v>922.6774975139006</v>
+        <v>409.1586012949293</v>
       </c>
       <c r="D31" t="n">
-        <v>772.5608581015648</v>
+        <v>259.0419618825936</v>
       </c>
       <c r="E31" t="n">
-        <v>624.6477645191717</v>
+        <v>259.0419618825936</v>
       </c>
       <c r="F31" t="n">
-        <v>477.7578170212613</v>
+        <v>259.0419618825936</v>
       </c>
       <c r="G31" t="n">
-        <v>310.0549803959803</v>
+        <v>259.0419618825936</v>
       </c>
       <c r="H31" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J31" t="n">
         <v>111.634748879119</v>
@@ -6643,28 +6645,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R31" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S31" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T31" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U31" t="n">
-        <v>1927.294548088493</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V31" t="n">
-        <v>1927.294548088493</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W31" t="n">
-        <v>1722.044275313594</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X31" t="n">
-        <v>1494.054724415577</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="Y31" t="n">
-        <v>1273.262145272047</v>
+        <v>590.8070661251691</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1381.278680221567</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="C32" t="n">
-        <v>1012.316163281155</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D32" t="n">
-        <v>654.0504646744046</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E32" t="n">
-        <v>268.2622120761603</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F32" t="n">
-        <v>268.2622120761603</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G32" t="n">
-        <v>268.2622120761603</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H32" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I32" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M32" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O32" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T32" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U32" t="n">
-        <v>3215.315153136265</v>
+        <v>2823.329208306698</v>
       </c>
       <c r="V32" t="n">
-        <v>2884.252265792694</v>
+        <v>2823.329208306698</v>
       </c>
       <c r="W32" t="n">
-        <v>2531.48361052258</v>
+        <v>2470.560553036583</v>
       </c>
       <c r="X32" t="n">
-        <v>2158.0178522615</v>
+        <v>2097.094794775503</v>
       </c>
       <c r="Y32" t="n">
-        <v>1767.878520285688</v>
+        <v>1706.955462799692</v>
       </c>
     </row>
     <row r="33">
@@ -6768,22 +6770,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I33" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1091.613680441807</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C34" t="n">
-        <v>922.6774975139006</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D34" t="n">
-        <v>772.5608581015648</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E34" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F34" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G34" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H34" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I34" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J34" t="n">
         <v>111.634748879119</v>
@@ -6880,28 +6882,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R34" t="n">
-        <v>1927.294548088493</v>
+        <v>1891.743339809199</v>
       </c>
       <c r="S34" t="n">
-        <v>1927.294548088493</v>
+        <v>1700.057455636025</v>
       </c>
       <c r="T34" t="n">
-        <v>1927.294548088493</v>
+        <v>1478.290840205551</v>
       </c>
       <c r="U34" t="n">
-        <v>1927.294548088493</v>
+        <v>1189.187973331195</v>
       </c>
       <c r="V34" t="n">
-        <v>1927.294548088493</v>
+        <v>934.5034851253081</v>
       </c>
       <c r="W34" t="n">
-        <v>1722.044275313594</v>
+        <v>645.0863150883474</v>
       </c>
       <c r="X34" t="n">
-        <v>1494.054724415577</v>
+        <v>417.0967641903301</v>
       </c>
       <c r="Y34" t="n">
-        <v>1273.262145272047</v>
+        <v>417.0967641903301</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1320.35562273557</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="C35" t="n">
-        <v>1320.35562273557</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="D35" t="n">
-        <v>1320.35562273557</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="E35" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F35" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G35" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H35" t="n">
         <v>108.5090151927147</v>
@@ -6968,19 +6970,19 @@
         <v>3009.337405520489</v>
       </c>
       <c r="U35" t="n">
-        <v>3009.337405520489</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V35" t="n">
-        <v>2678.274518176918</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W35" t="n">
-        <v>2470.560553036583</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X35" t="n">
-        <v>2097.094794775503</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y35" t="n">
-        <v>1706.955462799692</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="36">
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>680.3679798527295</v>
+        <v>1007.446783179745</v>
       </c>
       <c r="C37" t="n">
-        <v>511.4317969248226</v>
+        <v>838.5106002518381</v>
       </c>
       <c r="D37" t="n">
-        <v>361.3151575124869</v>
+        <v>688.3939608395024</v>
       </c>
       <c r="E37" t="n">
-        <v>213.4020639300938</v>
+        <v>540.4808672571093</v>
       </c>
       <c r="F37" t="n">
-        <v>66.51211643218343</v>
+        <v>393.5909197591989</v>
       </c>
       <c r="G37" t="n">
-        <v>66.51211643218343</v>
+        <v>225.8880831339178</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218343</v>
+        <v>79.67089635177561</v>
       </c>
       <c r="I37" t="n">
         <v>66.51211643218343</v>
@@ -7117,28 +7119,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T37" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U37" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V37" t="n">
-        <v>1600.215744761477</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W37" t="n">
-        <v>1310.798574724517</v>
+        <v>1637.877378051532</v>
       </c>
       <c r="X37" t="n">
-        <v>1082.809023826499</v>
+        <v>1409.887827153515</v>
       </c>
       <c r="Y37" t="n">
-        <v>862.0164446829692</v>
+        <v>1189.095248009985</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>921.7704558796256</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="C38" t="n">
-        <v>552.807938939214</v>
+        <v>552.8079389392149</v>
       </c>
       <c r="D38" t="n">
-        <v>194.5422403324635</v>
+        <v>194.5422403324644</v>
       </c>
       <c r="E38" t="n">
         <v>108.5090151927147</v>
@@ -7169,31 +7171,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R38" t="n">
         <v>3325.605821609171</v>
@@ -7202,22 +7204,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T38" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U38" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V38" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W38" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X38" t="n">
-        <v>1698.509627919559</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y38" t="n">
-        <v>1308.370295943747</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="39">
@@ -7227,37 +7229,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7284,7 +7286,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7293,10 +7295,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1091.613680441807</v>
+        <v>2489.924953962486</v>
       </c>
       <c r="C40" t="n">
-        <v>922.6774975139006</v>
+        <v>2320.988771034579</v>
       </c>
       <c r="D40" t="n">
-        <v>772.5608581015648</v>
+        <v>2170.872131622243</v>
       </c>
       <c r="E40" t="n">
-        <v>624.6477645191717</v>
+        <v>2022.95903803985</v>
       </c>
       <c r="F40" t="n">
-        <v>477.7578170212613</v>
+        <v>1876.06909054194</v>
       </c>
       <c r="G40" t="n">
-        <v>310.0549803959803</v>
+        <v>1708.366253916659</v>
       </c>
       <c r="H40" t="n">
-        <v>163.8377936138381</v>
+        <v>1562.149067134517</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J40" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399798</v>
       </c>
       <c r="K40" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348674</v>
       </c>
       <c r="L40" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M40" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N40" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102584</v>
       </c>
       <c r="O40" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P40" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456657</v>
       </c>
       <c r="Q40" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R40" t="n">
-        <v>1837.464090846021</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="S40" t="n">
-        <v>1837.464090846021</v>
+        <v>3044.089480193526</v>
       </c>
       <c r="T40" t="n">
-        <v>1837.464090846021</v>
+        <v>2822.322864763052</v>
       </c>
       <c r="U40" t="n">
-        <v>1837.464090846021</v>
+        <v>2533.219997888695</v>
       </c>
       <c r="V40" t="n">
-        <v>1837.464090846021</v>
+        <v>2533.219997888695</v>
       </c>
       <c r="W40" t="n">
-        <v>1722.044275313594</v>
+        <v>2533.219997888695</v>
       </c>
       <c r="X40" t="n">
-        <v>1494.054724415577</v>
+        <v>2533.219997888695</v>
       </c>
       <c r="Y40" t="n">
-        <v>1273.262145272047</v>
+        <v>2533.219997888695</v>
       </c>
     </row>
     <row r="41">
@@ -7385,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2071.975386180639</v>
+        <v>1888.09808975843</v>
       </c>
       <c r="C41" t="n">
-        <v>1703.012869240228</v>
+        <v>1519.135572818019</v>
       </c>
       <c r="D41" t="n">
-        <v>1344.747170633477</v>
+        <v>1160.869874211268</v>
       </c>
       <c r="E41" t="n">
-        <v>958.958918035233</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="F41" t="n">
-        <v>821.1650657389509</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G41" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H41" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
         <v>2120.555556060171</v>
@@ -7433,28 +7435,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T41" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U41" t="n">
-        <v>2755.806928794324</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="V41" t="n">
-        <v>2424.744041450754</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="W41" t="n">
-        <v>2071.975386180639</v>
+        <v>2766.859418723278</v>
       </c>
       <c r="X41" t="n">
-        <v>2071.975386180639</v>
+        <v>2664.837261798364</v>
       </c>
       <c r="Y41" t="n">
-        <v>2071.975386180639</v>
+        <v>2274.697929822552</v>
       </c>
     </row>
     <row r="42">
@@ -7464,37 +7466,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J42" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7521,7 +7523,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7530,10 +7532,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="43">
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.4482993600903</v>
+        <v>1013.984021809893</v>
       </c>
       <c r="C43" t="n">
-        <v>66.51211643218342</v>
+        <v>845.0478388819857</v>
       </c>
       <c r="D43" t="n">
-        <v>66.51211643218342</v>
+        <v>694.93119946965</v>
       </c>
       <c r="E43" t="n">
-        <v>66.51211643218342</v>
+        <v>547.0181058872569</v>
       </c>
       <c r="F43" t="n">
-        <v>66.51211643218342</v>
+        <v>400.1281583893465</v>
       </c>
       <c r="G43" t="n">
-        <v>66.51211643218342</v>
+        <v>232.4253217640654</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218342</v>
+        <v>86.20813498192322</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J43" t="n">
         <v>111.634748879119</v>
@@ -7591,28 +7593,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>1739.201569949316</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T43" t="n">
-        <v>1517.434954518842</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U43" t="n">
-        <v>1228.332087644485</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V43" t="n">
-        <v>973.6475994385985</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="W43" t="n">
-        <v>684.2304294016378</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="X43" t="n">
-        <v>456.2408785036205</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="Y43" t="n">
-        <v>235.4482993600903</v>
+        <v>1195.632486640132</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2005.586939522201</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="C44" t="n">
-        <v>1636.624422581789</v>
+        <v>552.8079389392149</v>
       </c>
       <c r="D44" t="n">
-        <v>1278.358723975039</v>
+        <v>494.2972677909589</v>
       </c>
       <c r="E44" t="n">
-        <v>892.5704713767946</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="F44" t="n">
-        <v>481.5845665871869</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G44" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H44" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U44" t="n">
-        <v>3072.075344883006</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V44" t="n">
-        <v>3072.075344883006</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W44" t="n">
-        <v>3072.075344883006</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X44" t="n">
-        <v>2782.326111562134</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y44" t="n">
-        <v>2392.186779586323</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="45">
@@ -7716,16 +7718,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K45" t="n">
         <v>398.4535849031479</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>944.7237329438971</v>
+        <v>2246.382089998689</v>
       </c>
       <c r="C46" t="n">
-        <v>775.7875500159902</v>
+        <v>2077.445907070782</v>
       </c>
       <c r="D46" t="n">
-        <v>625.6709106036544</v>
+        <v>1927.329267658446</v>
       </c>
       <c r="E46" t="n">
-        <v>477.7578170212613</v>
+        <v>1779.416174076053</v>
       </c>
       <c r="F46" t="n">
-        <v>477.7578170212613</v>
+        <v>1632.526226578143</v>
       </c>
       <c r="G46" t="n">
-        <v>310.0549803959802</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="H46" t="n">
-        <v>163.837793613838</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="I46" t="n">
-        <v>66.5121164321834</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J46" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399798</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348674</v>
       </c>
       <c r="L46" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N46" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102584</v>
       </c>
       <c r="O46" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P46" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456657</v>
       </c>
       <c r="Q46" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R46" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S46" t="n">
-        <v>1864.257194690041</v>
+        <v>3159.692616277289</v>
       </c>
       <c r="T46" t="n">
-        <v>1864.257194690041</v>
+        <v>2937.926000846815</v>
       </c>
       <c r="U46" t="n">
-        <v>1575.154327815684</v>
+        <v>2648.823133972459</v>
       </c>
       <c r="V46" t="n">
-        <v>1575.154327815684</v>
+        <v>2648.823133972459</v>
       </c>
       <c r="W46" t="n">
-        <v>1575.154327815684</v>
+        <v>2648.823133972459</v>
       </c>
       <c r="X46" t="n">
-        <v>1347.164776917667</v>
+        <v>2648.823133972459</v>
       </c>
       <c r="Y46" t="n">
-        <v>1126.372197774137</v>
+        <v>2428.030554828929</v>
       </c>
     </row>
   </sheetData>
@@ -8058,19 +8060,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>265.0304328515148</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>199.7516311504061</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>305.1601501039157</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8079,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,19 +8294,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>193.327346787835</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>6.454437538929426</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>273.6534998179981</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>249.3877325071647</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8313,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8532,16 +8534,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>114.3555089013346</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>129.4330134067486</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8790,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>-9.481304630298837e-13</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9027,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -22547,10 +22549,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>341.8529467226888</v>
       </c>
       <c r="D2" t="n">
-        <v>49.67042516341098</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22565,7 +22567,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,13 +22597,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22702,25 +22704,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>77.61193515748712</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -22753,25 +22755,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>216.8034931298451</v>
       </c>
     </row>
     <row r="5">
@@ -22781,28 +22783,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>277.5986075140867</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>192.9572760566446</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22835,10 +22837,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -22850,7 +22852,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22942,7 +22944,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -22957,7 +22959,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -22990,13 +22992,13 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>115.2459207102715</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>87.83028144716258</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -23018,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247044</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23069,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>103.8485367655379</v>
+        <v>273.5399324305408</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23176,28 +23178,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23227,22 +23229,22 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>115.2459207102714</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>80.85095794181444</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -23255,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23276,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,22 +23311,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>165.7305790876776</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>79.07103700761979</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23413,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23428,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,22 +23469,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>60.35027070728356</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>16.19419499620864</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23492,22 +23494,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>261.6278756199976</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23543,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23555,13 +23557,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>161.2723701802163</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>105.0742887270139</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23671,7 +23673,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>21.59472895491429</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23744,10 +23746,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>22.83235297484896</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -23789,13 +23791,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>126.4919521192241</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23896,16 +23898,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -23935,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>22.04937489577966</v>
       </c>
       <c r="W19" t="n">
-        <v>75.90496054965092</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23966,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23975,19 +23977,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>296.7574771839101</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24026,13 +24028,13 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>320.5133764641988</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24124,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
@@ -24175,13 +24177,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>3.556976973656305</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>68.10750358912654</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24212,19 +24214,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>92.83950704428989</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24272,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>174.9841412039994</v>
       </c>
     </row>
     <row r="24">
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>144.791707030092</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>67.44147048051575</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24452,16 +24454,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>317.3955842695688</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24494,22 +24496,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>290.3129182374927</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24613,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>94.35543628911095</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24658,7 +24660,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>94.3554362891108</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24683,7 +24685,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>317.3955842695684</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24698,7 +24700,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24737,16 +24739,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>225.1165728943836</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24838,22 +24840,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>50.50288832825285</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24917,22 +24919,22 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>136.4520994727093</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24968,13 +24970,13 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>66.84705671724896</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25078,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>53.73645647354641</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25151,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25160,7 +25162,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>306.4732379112239</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25169,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25208,13 +25210,13 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>143.6041432284819</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25324,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>83.32522828944184</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
@@ -25369,7 +25371,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>17.26178070012992</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25397,7 +25399,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>296.7574771839105</v>
+        <v>296.7574771839096</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>136.9698866949899</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25597,25 +25599,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>172.2573809594889</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25637,16 +25639,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>270.4601319683923</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>268.7291653228039</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25783,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>76.85336204559567</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>92.48912964370402</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25843,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25868,22 +25870,22 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>296.7574771839096</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>82.87935969080576</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26032,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,10 +26073,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>127.3620454669744</v>
+        <v>25.51495205287856</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>761671.8618622505</v>
+        <v>761671.8618622501</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>841542.3321288793</v>
+        <v>841542.3321288794</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>841542.3321288791</v>
+        <v>841542.3321288796</v>
       </c>
     </row>
     <row r="7">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>841542.3321288793</v>
+        <v>841542.3321288791</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>841542.3321288793</v>
+        <v>841542.3321288794</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>841542.3321288793</v>
+        <v>841542.3321288794</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>841542.3321288794</v>
+        <v>841542.3321288793</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>841542.3321288793</v>
+        <v>841542.3321288794</v>
       </c>
     </row>
   </sheetData>
@@ -26317,22 +26319,22 @@
         <v>321270.2120190239</v>
       </c>
       <c r="D2" t="n">
-        <v>321270.212019024</v>
+        <v>321270.2120190238</v>
       </c>
       <c r="E2" t="n">
-        <v>358046.9539194668</v>
+        <v>358046.9539194666</v>
       </c>
       <c r="F2" t="n">
+        <v>358046.9539194664</v>
+      </c>
+      <c r="G2" t="n">
         <v>358046.9539194665</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>358046.9539194665</v>
+      </c>
+      <c r="I2" t="n">
         <v>358046.9539194667</v>
-      </c>
-      <c r="H2" t="n">
-        <v>358046.9539194667</v>
-      </c>
-      <c r="I2" t="n">
-        <v>358046.9539194666</v>
       </c>
       <c r="J2" t="n">
         <v>358046.9539194666</v>
@@ -26344,13 +26346,13 @@
         <v>358046.9539194667</v>
       </c>
       <c r="M2" t="n">
-        <v>358046.9539194667</v>
+        <v>358046.9539194666</v>
       </c>
       <c r="N2" t="n">
         <v>358046.9539194666</v>
       </c>
       <c r="O2" t="n">
-        <v>358046.9539194666</v>
+        <v>358046.9539194665</v>
       </c>
       <c r="P2" t="n">
         <v>358046.9539194666</v>
@@ -26369,25 +26371,25 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.920889983215602e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171904</v>
+        <v>182072.979817191</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099823</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12563.18241499341</v>
+        <v>12563.18241499338</v>
       </c>
       <c r="C4" t="n">
-        <v>12563.18241499341</v>
+        <v>12563.1824149934</v>
       </c>
       <c r="D4" t="n">
         <v>12563.18241499341</v>
       </c>
       <c r="E4" t="n">
-        <v>6720.683277029939</v>
+        <v>6720.683277029928</v>
       </c>
       <c r="F4" t="n">
-        <v>6720.683277029948</v>
+        <v>6720.683277029938</v>
       </c>
       <c r="G4" t="n">
-        <v>6720.683277029939</v>
+        <v>6720.683277029938</v>
       </c>
       <c r="H4" t="n">
-        <v>6720.683277029939</v>
+        <v>6720.683277029938</v>
       </c>
       <c r="I4" t="n">
-        <v>6720.683277029939</v>
+        <v>6720.683277029938</v>
       </c>
       <c r="J4" t="n">
-        <v>6720.683277029939</v>
+        <v>6720.683277029938</v>
       </c>
       <c r="K4" t="n">
-        <v>6720.683277029939</v>
+        <v>6720.683277029938</v>
       </c>
       <c r="L4" t="n">
-        <v>6720.683277029939</v>
+        <v>6720.683277029938</v>
       </c>
       <c r="M4" t="n">
-        <v>6720.683277029939</v>
+        <v>6720.683277029938</v>
       </c>
       <c r="N4" t="n">
-        <v>6720.683277029939</v>
+        <v>6720.683277029938</v>
       </c>
       <c r="O4" t="n">
-        <v>6720.683277029939</v>
+        <v>6720.683277029938</v>
       </c>
       <c r="P4" t="n">
-        <v>6720.683277029939</v>
+        <v>6720.683277029938</v>
       </c>
     </row>
     <row r="5">
@@ -26473,10 +26475,10 @@
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="F5" t="n">
         <v>74306.3405613933</v>
@@ -26488,7 +26490,7 @@
         <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="J5" t="n">
         <v>74306.34056139328</v>
@@ -26497,7 +26499,7 @@
         <v>74306.3405613933</v>
       </c>
       <c r="L5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="M5" t="n">
         <v>74306.3405613933</v>
@@ -26506,10 +26508,10 @@
         <v>74306.3405613933</v>
       </c>
       <c r="O5" t="n">
+        <v>74306.34056139328</v>
+      </c>
+      <c r="P5" t="n">
         <v>74306.3405613933</v>
-      </c>
-      <c r="P5" t="n">
-        <v>74306.34056139328</v>
       </c>
     </row>
     <row r="6">
@@ -26525,25 +26527,25 @@
         <v>215769.2571641858</v>
       </c>
       <c r="D6" t="n">
-        <v>215769.2571641856</v>
+        <v>215769.2571641859</v>
       </c>
       <c r="E6" t="n">
-        <v>94946.95026385307</v>
+        <v>94946.95026385236</v>
       </c>
       <c r="F6" t="n">
-        <v>277019.9300810434</v>
+        <v>277019.9300810433</v>
       </c>
       <c r="G6" t="n">
+        <v>277019.9300810432</v>
+      </c>
+      <c r="H6" t="n">
         <v>277019.9300810433</v>
       </c>
-      <c r="H6" t="n">
-        <v>277019.9300810435</v>
-      </c>
       <c r="I6" t="n">
-        <v>277019.9300810434</v>
+        <v>277019.9300810433</v>
       </c>
       <c r="J6" t="n">
-        <v>109414.7522710609</v>
+        <v>109414.7522710611</v>
       </c>
       <c r="K6" t="n">
         <v>277019.9300810433</v>
@@ -26552,16 +26554,16 @@
         <v>277019.9300810435</v>
       </c>
       <c r="M6" t="n">
-        <v>229467.6642876285</v>
+        <v>229467.6642876284</v>
       </c>
       <c r="N6" t="n">
-        <v>277019.9300810434</v>
+        <v>277019.9300810433</v>
       </c>
       <c r="O6" t="n">
-        <v>277019.9300810434</v>
+        <v>277019.9300810433</v>
       </c>
       <c r="P6" t="n">
-        <v>277019.9300810434</v>
+        <v>277019.9300810433</v>
       </c>
     </row>
   </sheetData>
@@ -26735,16 +26737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
+        <v>934.0648921175393</v>
+      </c>
+      <c r="D3" t="n">
         <v>934.0648921175391</v>
       </c>
-      <c r="D3" t="n">
-        <v>934.0648921175394</v>
-      </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26756,7 +26758,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="J3" t="n">
         <v>1089.776700593298</v>
@@ -26787,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="F4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="G4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="F4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="G4" t="n">
-        <v>831.4014554022928</v>
-      </c>
       <c r="H4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="J4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="L4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="M4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
     </row>
   </sheetData>
@@ -26957,28 +26959,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>155.7118084757589</v>
+        <v>155.7118084757594</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000386</v>
+        <v>640.5848321000384</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31039,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31054,16 +31056,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31075,7 +31077,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31124,7 +31126,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31136,16 +31138,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31203,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31230,7 +31232,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31239,7 +31241,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,34 +31372,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,25 +31679,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335773</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31759,40 +31761,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31911,43 +31913,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -31987,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32555,7 +32557,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
         <v>593.9283018233475</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H23" t="n">
         <v>44.86703772844668</v>
@@ -32707,40 +32709,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T23" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H24" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233467</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q24" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32859,43 +32861,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K25" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L25" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P25" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q25" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U25" t="n">
         <v>0.1071911508780295</v>
@@ -33497,7 +33499,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
@@ -33515,7 +33517,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q33" t="n">
         <v>299.2156706987487</v>
@@ -33743,7 +33745,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
         <v>609.6478166837925</v>
@@ -33974,7 +33976,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L39" t="n">
         <v>508.9565619138796</v>
@@ -34211,7 +34213,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L42" t="n">
         <v>508.9565619138796</v>
@@ -34699,19 +34701,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407329</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34720,7 +34722,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,22 +34777,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>562.710793489365</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>590.9487307432801</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
@@ -34799,7 +34801,7 @@
         <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,13 +34856,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34869,13 +34871,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313198</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>304.1347981767797</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637951</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560635</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>412.0358695391849</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>496.3643456887891</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977097</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K13" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O13" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35817,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36142,7 +36144,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222479</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,7 +36205,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
         <v>451.7942679013292</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013284</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q24" t="n">
         <v>159.2338966127272</v>
@@ -36513,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K25" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N25" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O25" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -37145,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597693</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
@@ -37163,7 +37165,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q33" t="n">
         <v>159.2338966127272</v>
@@ -37391,7 +37393,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
         <v>478.3061046004592</v>
@@ -37622,7 +37624,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L39" t="n">
         <v>370.4021821340054</v>
@@ -37859,7 +37861,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L42" t="n">
         <v>370.4021821340054</v>
